--- a/Adwords/关键字Laesr Pointer日文.xlsx
+++ b/Adwords/关键字Laesr Pointer日文.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="473">
   <si>
     <t>led</t>
   </si>
@@ -1450,6 +1450,18 @@
   </si>
   <si>
     <t>レーザーポインター ペン型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レーザーポインター 超強力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レーザーポインター 高出力 販売</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超強力 レーザー</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3580,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4586,7 +4598,7 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
@@ -4661,7 +4673,7 @@
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>69</v>
+        <v>471</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
@@ -5201,7 +5213,7 @@
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>308</v>
+        <v>472</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
